--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y910"/>
+  <dimension ref="A1:Y911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
       </c>
       <c r="R909" s="2" t="inlineStr"/>
     </row>
-    <row r="910">
+    <row r="910" ht="15" customHeight="1">
       <c r="A910" t="inlineStr">
         <is>
           <t>A 40541-2023</t>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54982,6 +54982,68 @@
         <v>0</v>
       </c>
       <c r="R910" s="2" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>A 41166-2023</t>
+        </is>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C911" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>KATRINEHOLM</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G911" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="n">
+        <v>0</v>
+      </c>
+      <c r="J911" t="n">
+        <v>0</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>0</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y911"/>
+  <dimension ref="A1:Y912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54983,7 +54983,7 @@
       </c>
       <c r="R910" s="2" t="inlineStr"/>
     </row>
-    <row r="911">
+    <row r="911" ht="15" customHeight="1">
       <c r="A911" t="inlineStr">
         <is>
           <t>A 41166-2023</t>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55044,6 +55044,63 @@
         <v>0</v>
       </c>
       <c r="R911" s="2" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>A 41966-2023</t>
+        </is>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C912" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>KATRINEHOLM</t>
+        </is>
+      </c>
+      <c r="G912" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="n">
+        <v>0</v>
+      </c>
+      <c r="J912" t="n">
+        <v>0</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>0</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y912"/>
+  <dimension ref="A1:Y914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
       </c>
       <c r="R911" s="2" t="inlineStr"/>
     </row>
-    <row r="912">
+    <row r="912" ht="15" customHeight="1">
       <c r="A912" t="inlineStr">
         <is>
           <t>A 41966-2023</t>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55101,6 +55101,120 @@
         <v>0</v>
       </c>
       <c r="R912" s="2" t="inlineStr"/>
+    </row>
+    <row r="913" ht="15" customHeight="1">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>A 42451-2023</t>
+        </is>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C913" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>KATRINEHOLM</t>
+        </is>
+      </c>
+      <c r="G913" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="n">
+        <v>0</v>
+      </c>
+      <c r="J913" t="n">
+        <v>0</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>0</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" s="2" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>A 42454-2023</t>
+        </is>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C914" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>KATRINEHOLM</t>
+        </is>
+      </c>
+      <c r="G914" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="n">
+        <v>0</v>
+      </c>
+      <c r="J914" t="n">
+        <v>0</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>0</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y914"/>
+  <dimension ref="A1:Y915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55112,7 +55112,7 @@
         <v>45180</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55159,7 +55159,7 @@
       </c>
       <c r="R913" s="2" t="inlineStr"/>
     </row>
-    <row r="914">
+    <row r="914" ht="15" customHeight="1">
       <c r="A914" t="inlineStr">
         <is>
           <t>A 42454-2023</t>
@@ -55169,7 +55169,7 @@
         <v>45180</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55215,6 +55215,63 @@
         <v>0</v>
       </c>
       <c r="R914" s="2" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>A 43078-2023</t>
+        </is>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C915" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>KATRINEHOLM</t>
+        </is>
+      </c>
+      <c r="G915" t="n">
+        <v>1</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="n">
+        <v>0</v>
+      </c>
+      <c r="J915" t="n">
+        <v>0</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>0</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
+      <c r="R915" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55112,7 +55112,7 @@
         <v>45180</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45180</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55226,7 +55226,7 @@
         <v>45182</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43923</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>43923</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>43924</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43924</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43927</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43928</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43928</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43928</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43928</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>43935</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43943</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43990</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43992</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43997</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43998</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43998</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43999</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44004</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44008</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44012</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44017</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44023</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44028</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44028</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44043</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44049</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44060</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44061</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44068</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44068</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44085</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44085</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44089</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44089</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44099</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44102</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44110</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44112</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44115</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44124</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44128</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44130</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44130</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44130</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44130</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44130</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44138</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44139</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44140</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44140</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44141</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44142</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44146</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44151</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44151</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44155</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>44159</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44166</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44167</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44169</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44169</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44169</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44169</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44172</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44172</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44173</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44173</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44173</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44179</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44180</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44195</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44212</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44212</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44214</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44223</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44225</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44231</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44232</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44242</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44242</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44242</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44250</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44251</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44258</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44260</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44264</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44265</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44265</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44266</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44266</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44266</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44266</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44270</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44270</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44299</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44299</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44319</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44323</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44335</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44342</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>44351</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44362</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44362</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44369</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44370</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44386</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44391</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44391</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44393</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44393</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44405</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44406</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44411</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44411</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44412</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44412</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44415</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44416</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44417</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44419</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44419</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44423</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44426</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44430</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44433</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>44434</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44439</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44439</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44439</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>44440</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44449</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44455</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44455</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>44460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44461</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>44461</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44461</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44463</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44466</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44466</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44466</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44467</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44467</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44467</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44467</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44467</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44468</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44468</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44473</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44473</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44473</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44476</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44476</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44480</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44480</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44480</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44480</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44483</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44483</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44483</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44491</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44491</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44496</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44496</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44496</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44496</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44498</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44504</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44504</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44508</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44509</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44510</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44512</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44512</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44515</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44517</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>44522</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44523</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44523</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>44526</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44536</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>44536</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44539</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44539</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44546</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>44550</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44551</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44551</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44551</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44551</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>44551</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>44553</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>44565</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44571</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44574</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44581</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44581</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44582</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44585</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44587</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44596</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44599</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44600</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44601</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44601</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44601</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44601</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44602</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44602</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44602</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44602</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44602</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44602</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44602</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44602</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44605</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44615</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44616</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44621</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44638</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44641</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44643</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44644</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44649</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44650</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44658</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44659</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44678</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44683</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44693</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44694</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44694</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44696</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44697</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44701</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44708</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44712</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44719</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44725</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44725</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44725</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44725</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44731</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44742</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44742</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44749</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44757</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44762</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>44776</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44781</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44781</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44781</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44783</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44783</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>44783</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>44784</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44798</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44809</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44809</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44809</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>44809</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44809</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>44810</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44816</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44817</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44817</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>44817</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44817</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44823</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44823</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44823</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44824</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44824</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44824</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44824</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44825</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44827</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44827</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44830</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>44831</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>44831</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44833</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>44837</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44837</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44838</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44840</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44840</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>44840</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>44844</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44844</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44844</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44844</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>44847</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44847</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44848</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44851</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>44851</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44851</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>44851</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44853</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>44853</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44853</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44853</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>44853</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>44854</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44854</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>44855</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44858</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>44858</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>44859</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44862</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44862</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44865</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44865</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>44871</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44872</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>44876</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42413,7 +42413,7 @@
         <v>44879</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         <v>44886</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42532,7 +42532,7 @@
         <v>44886</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42589,7 +42589,7 @@
         <v>44886</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42646,7 +42646,7 @@
         <v>44887</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42703,7 +42703,7 @@
         <v>44888</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42760,7 +42760,7 @@
         <v>44888</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42817,7 +42817,7 @@
         <v>44888</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42874,7 +42874,7 @@
         <v>44888</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         <v>44889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42988,7 +42988,7 @@
         <v>44890</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43045,7 +43045,7 @@
         <v>44890</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43102,7 +43102,7 @@
         <v>44890</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43159,7 +43159,7 @@
         <v>44895</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>44895</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>44899</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44905</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>44905</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>44908</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>44909</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
         <v>44922</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>44924</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>44924</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>44934</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>44942</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>44944</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>44945</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44945</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44949</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>44949</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>44952</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>44957</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>44957</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>44957</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>44957</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>44957</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44959</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44619,7 +44619,7 @@
         <v>44960</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44676,7 +44676,7 @@
         <v>44963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>44963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>44963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>44963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>44964</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>44964</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>44964</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>44964</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>44964</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>44965</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>44965</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>44965</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>44965</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         <v>44968</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45484,7 +45484,7 @@
         <v>44970</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45546,7 +45546,7 @@
         <v>44970</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45603,7 +45603,7 @@
         <v>44974</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45660,7 +45660,7 @@
         <v>44974</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45722,7 +45722,7 @@
         <v>44974</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44977</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44977</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44977</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>44978</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         <v>44978</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>44980</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         <v>44980</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44985</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>44985</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46327,7 +46327,7 @@
         <v>44987</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44988</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44992</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>44994</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46565,7 +46565,7 @@
         <v>44994</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>44995</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46684,7 +46684,7 @@
         <v>44995</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44998</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44999</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45001</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45001</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45001</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45001</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>45001</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45001</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45002</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45006</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45006</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45013</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45013</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45014</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>45016</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45016</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45016</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45019</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45019</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45020</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45026</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45030</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48159,7 +48159,7 @@
         <v>45030</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45033</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45033</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45036</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>45036</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>45036</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48521,7 +48521,7 @@
         <v>45041</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45050</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45050</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>45050</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48888,7 +48888,7 @@
         <v>45051</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45051</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45056</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>45056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45061</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45061</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>45064</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>45070</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>45070</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45071</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45072</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45075</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45075</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45075</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>45075</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>45076</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>45076</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45076</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45077</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>45077</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>45078</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45079</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45079</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45082</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45086</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45095</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45098</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45099</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>45100</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51327,7 +51327,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45105</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45106</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45108</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45110</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45110</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45110</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45133</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45133</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52492,7 +52492,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52549,7 +52549,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52606,7 +52606,7 @@
         <v>45141</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52663,7 +52663,7 @@
         <v>45141</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45141</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52782,7 +52782,7 @@
         <v>45141</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45141</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45142</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45147</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45148</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45148</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45152</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45152</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45152</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45153</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45153</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53714,7 +53714,7 @@
         <v>45154</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53771,7 +53771,7 @@
         <v>45154</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>45154</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45155</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45155</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45155</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54056,7 +54056,7 @@
         <v>45156</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>45159</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45160</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>45163</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45163</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45163</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>45163</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>45163</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45166</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54584,7 +54584,7 @@
         <v>45167</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54641,7 +54641,7 @@
         <v>45168</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>45168</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54755,7 +54755,7 @@
         <v>45168</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54812,7 +54812,7 @@
         <v>45169</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>45169</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45170</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54993,7 +54993,7 @@
         <v>45174</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55055,7 +55055,7 @@
         <v>45177</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55112,7 +55112,7 @@
         <v>45180</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55169,7 +55169,7 @@
         <v>45180</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55226,7 +55226,7 @@
         <v>45182</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y915"/>
+  <dimension ref="A1:Y917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44817</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44995</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45057</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>44223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44180</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>43914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>44168</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44500</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44536</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44936</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45168</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43580</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43745</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43928</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44180</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44733</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44803</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44831</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45091</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45099</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43339</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43382</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43384</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43410</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43422</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43422</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43466</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43474</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43489</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43504</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43511</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43515</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43525</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43529</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43538</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43543</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43546</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43546</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43559</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43565</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>43594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>43599</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43645</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43654</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43660</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43661</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43663</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>43665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>43669</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43669</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43678</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>43678</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43678</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43690</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>43691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43697</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43697</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43697</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43697</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43697</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43697</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43697</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43699</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43705</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43705</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43709</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43710</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43710</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43710</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43710</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43710</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43711</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43711</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43712</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43713</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43713</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43727</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43739</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43739</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43745</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43745</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43745</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43750</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>43769</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43779</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43781</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43781</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43782</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43793</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43794</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43795</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43802</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43802</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43809</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43810</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43810</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43810</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43812</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>43822</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43846</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>43865</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43865</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43866</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>43866</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>43867</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43871</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43872</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>43877</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>43878</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>43879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>43881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>43885</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>43886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43901</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43901</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43906</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43908</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43915</v>
       </c>
       <c 